--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,12 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -39,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,17 +68,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -450,12 +466,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -464,22 +480,22 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Time In</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Time Out</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Weapon ID</t>
         </is>
@@ -493,193 +509,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Luth</t>
+          <t>luth</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27/8/2022</t>
+          <t>11/9/2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74530</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>745305</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jiarun</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24/7/2022</t>
+          <t>11/9/2022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>136452</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kyan</t>
+          <t>luth</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24/1/2023</t>
+          <t>11/9/2022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>745121</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>`00</t>
-        </is>
+          <t>745305</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Luth</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13/06/2022</t>
+          <t>11/9/2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>745305</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>luth</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>17/9/2022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Luth</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24/8/2022</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
+          <t>17/9/2022</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1800</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>745305</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
